--- a/output.xlsx
+++ b/output.xlsx
@@ -50,13 +50,13 @@
     <t xml:space="preserve">KCNA2</t>
   </si>
   <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOF</t>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOF</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>377</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -440,22 +440,22 @@
         <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0.781872599693279</v>
+        <v>0.559604420487882</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0762003119067883</v>
+        <v>0.060619095561635</v>
       </c>
       <c r="H2" t="n">
-        <v>0.141927088399933</v>
+        <v>0.379776483950483</v>
       </c>
       <c r="I2" t="n">
-        <v>0.669988554379953</v>
+        <v>0.638331342567038</v>
       </c>
       <c r="J2" t="n">
-        <v>0.551141213899917</v>
+        <v>-0.635422669778789</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0154210530674656</v>
+        <v>-0.814350077880171</v>
       </c>
     </row>
   </sheetData>
